--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1298364.776265409</v>
+        <v>1296112.696554201</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>300.4367868126739</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -868,10 +868,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>100.1148780361132</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>34.12489344345532</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>253.8293786295316</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>180.1454415463367</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>67.90165286872464</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>72.89138480951716</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.644893949213</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.7115619691728</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>220.2858449881296</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.72279572932659</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>180.3302385618281</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>118.6708469029958</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>227.3641166063628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>101.152755901144</v>
       </c>
       <c r="V28" t="n">
-        <v>205.5639206769113</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365953</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F31" t="n">
-        <v>31.26260713376613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>97.77174959685459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>26.13627195705828</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U43" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4349,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4483,7 +4483,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1544.65206724243</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1289.967579036543</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>1000.550408999582</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4403436627018</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3033.350060665217</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3033.350060665217</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2702.287173321647</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2349.518518051532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2349.518518051532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1013.984021809892</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>845.0478388819853</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>694.9311994696495</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>547.0181058872564</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>400.128158389346</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>232.425321764065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.425065783662</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X7" t="n">
-        <v>1416.425065783662</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y7" t="n">
-        <v>1195.632486640132</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,16 +5060,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.3164745246296</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>701.3802915967227</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>551.263652184387</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>403.3505586019938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.757518498399</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.964939354869</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.741944003833</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797731</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,34 +6242,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1875.286579600262</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342034</v>
+        <v>1620.602091394375</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407056</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871884</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,10 +6716,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2165.348906208039</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1876.273679552237</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1621.58919134635</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.695539989114</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.011051783227</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>45.37941682720904</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>62.35543909864879</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>143.8269525734169</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>59.15888173022819</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0317184881001</v>
       </c>
       <c r="V28" t="n">
-        <v>46.57372264691671</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.6337007304337</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891686</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25831,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U43" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>955177.0267141479</v>
+        <v>955177.0267141478</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.581013729</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939197.5810137289</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939197.581013729</v>
+        <v>939197.5810137287</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939197.5810137287</v>
+        <v>939197.5810137289</v>
       </c>
     </row>
     <row r="15">
@@ -26314,37 +26314,37 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="K2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140038</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140037</v>
@@ -26353,7 +26353,7 @@
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551162</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26448,7 +26448,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26522,46 +26522,46 @@
         <v>-1035017.635358573</v>
       </c>
       <c r="C6" t="n">
-        <v>293727.11036902</v>
+        <v>293727.1103690194</v>
       </c>
       <c r="D6" t="n">
-        <v>293727.1103690195</v>
+        <v>293727.1103690199</v>
       </c>
       <c r="E6" t="n">
-        <v>45975.99196593565</v>
+        <v>45941.25404049971</v>
       </c>
       <c r="F6" t="n">
-        <v>371388.4537732906</v>
+        <v>371353.715847855</v>
       </c>
       <c r="G6" t="n">
-        <v>371388.4537732907</v>
+        <v>371353.7158478551</v>
       </c>
       <c r="H6" t="n">
-        <v>371388.4537732908</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="I6" t="n">
-        <v>371388.4537732906</v>
+        <v>371353.715847855</v>
       </c>
       <c r="J6" t="n">
-        <v>153857.2513760133</v>
+        <v>153822.5134505775</v>
       </c>
       <c r="K6" t="n">
-        <v>371388.4537732909</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="L6" t="n">
-        <v>371388.4537732906</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="M6" t="n">
-        <v>286333.425837779</v>
+        <v>286298.6879123432</v>
       </c>
       <c r="N6" t="n">
-        <v>371388.4537732908</v>
+        <v>371353.715847855</v>
       </c>
       <c r="O6" t="n">
-        <v>371388.4537732906</v>
+        <v>371353.7158478549</v>
       </c>
       <c r="P6" t="n">
-        <v>371388.4537732906</v>
+        <v>371353.715847855</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64.83610495833369</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>186.0969601694997</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>191.5847619455818</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>111.4435131414759</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>23.77252859328343</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>76.85336204559614</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.3204533960957</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>180.6279978217945</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.12041821276452</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>65.92599321748332</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.412692967705975e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P24" t="n">
-        <v>383.9182138639285</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,19 +33740,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096336</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P24" t="n">
-        <v>249.9438064495983</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
